--- a/Projects/CCRU/Data/KPIs_2020/KPIs for DB - Contract Execution 2020.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/KPIs for DB - Contract Execution 2020.xlsx
@@ -702,17 +702,17 @@
   <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C131" activeCellId="0" sqref="C131"/>
+      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.780612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="39.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="17.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6836734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="41.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="18.4285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,10 +1111,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0.447762</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>51</v>
@@ -1128,10 +1128,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0.447762</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>53</v>
@@ -1621,10 +1621,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>0.378788</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>89</v>
@@ -1638,10 +1638,10 @@
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>0.378788</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>90</v>

--- a/Projects/CCRU/Data/KPIs_2020/KPIs for DB - Contract Execution 2020.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/KPIs for DB - Contract Execution 2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="193">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -223,6 +223,12 @@
     <t xml:space="preserve">Parasites: SSD in Sweet Snacks (Teens)</t>
   </si>
   <si>
+    <t xml:space="preserve">HS_2020@Parasites: SSD/Juice in Sweet Snacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parasites: SSD/Juice in Sweet Snacks</t>
+  </si>
+  <si>
     <t xml:space="preserve">CV_2020@OSA</t>
   </si>
   <si>
@@ -340,16 +346,16 @@
     <t xml:space="preserve">CCH Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">FF_2020@Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF_2020@Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo</t>
+    <t xml:space="preserve">FF_2020@Impulse Activation (display FF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse Activation (display FF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF_2020@Combo SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo SSD</t>
   </si>
   <si>
     <t xml:space="preserve">CNM_2020@OSA</t>
@@ -373,25 +379,25 @@
     <t xml:space="preserve">CNM_2020@CCH Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">CNM_2020@Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNM_2020@Combo1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNM_2020@Combo2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNM_2020@Combo3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo3</t>
+    <t xml:space="preserve">CNM_2020@Impulse Activation (display Cinema)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse Activation (display Cinema)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNM_2020@Combo SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNM_2020@Combo Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNM_2020@Combo Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo Water</t>
   </si>
   <si>
     <t xml:space="preserve">QSR_2020@OSA</t>
@@ -415,22 +421,25 @@
     <t xml:space="preserve">QSR_2020@CCH Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">QSR_2020@Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR_2020@Combo1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR_2020@Combo2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR_2020@Combo3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR_2020@Assortment reminder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment reminder</t>
+    <t xml:space="preserve">QSR_2020@Impulse Activation (display QSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse Activation (display QSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR_2020@Combo SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR_2020@Combo Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR_2020@Combo Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR_2020@Availability reminder QSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability reminder QSR</t>
   </si>
   <si>
     <t xml:space="preserve">CNT_2020@OSA</t>
@@ -454,22 +463,16 @@
     <t xml:space="preserve">CNT_2020@CCH Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">CNT_2020@Juice&amp;Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice&amp;Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNT_2020@Coke&amp;Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke&amp;Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNT_2020@Activation bufet line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation bufet line</t>
+    <t xml:space="preserve">CNT_2020@Combo Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNT_2020@Combo SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNT_2020@Impulse Activation (display bufet line)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse Activation (display bufet line)</t>
   </si>
   <si>
     <t xml:space="preserve">PTR_2020@OSA</t>
@@ -493,16 +496,16 @@
     <t xml:space="preserve">PTR_2020@CCH Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">PTR_2020@Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTR_2020@Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTR_2020@Combo other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo other</t>
+    <t xml:space="preserve">PTR_2020@Impulse Activation (display Petrol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse Activation (display Petrol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTR_2020@Combo SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTR_2020@Combo Water</t>
   </si>
   <si>
     <t xml:space="preserve">PTR_2020@Display Burn parasite</t>
@@ -553,7 +556,10 @@
     <t xml:space="preserve">Menu Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">HRCBC_2020@Impulse Activation</t>
+    <t xml:space="preserve">HRCBC_2020@Bar Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar Activation</t>
   </si>
   <si>
     <t xml:space="preserve">HRCBC_2020@Destination Activation</t>
@@ -562,10 +568,7 @@
     <t xml:space="preserve">Destination Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">HRCBC_2020@Any Other Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any Other Activation</t>
+    <t xml:space="preserve">HRCBC_2020@Combo SSD</t>
   </si>
   <si>
     <t xml:space="preserve">HRCRC_2020@OSA</t>
@@ -592,10 +595,7 @@
     <t xml:space="preserve">HRCRC_2020@Menu Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">HRCRC_2020@Menu: Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu: Combo</t>
+    <t xml:space="preserve">HRCRC_2020@Combo SSD</t>
   </si>
   <si>
     <t xml:space="preserve">HRCRC_2020@Destination Activation</t>
@@ -699,20 +699,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D142" activeCellId="0" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="41.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="18.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.6632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="44.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="19.4387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,19 +1244,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.34</v>
+        <v>0.059702</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,33 +1264,33 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0.227273</v>
+        <v>0.66</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,16 +1298,16 @@
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>0.227273</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,16 +1315,16 @@
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>0.227273</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,16 +1332,16 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>0.227273</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,16 +1349,16 @@
         <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>0.227273</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,16 +1366,16 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>0.227273</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,16 +1383,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>0.227273</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,16 +1400,16 @@
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>0.227273</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,16 +1417,16 @@
         <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>0.227273</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,16 +1434,16 @@
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>0.227273</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,16 +1451,16 @@
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>0.333334</v>
+        <v>0.227273</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,16 +1468,16 @@
         <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>0.333334</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,16 +1485,16 @@
         <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>0.333334</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1502,16 +1502,16 @@
         <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>0.333334</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,16 +1519,16 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>0.378788</v>
+        <v>0.333334</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,16 +1536,16 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>0.378788</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,16 +1553,16 @@
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>0.378788</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,16 +1570,16 @@
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>0.378788</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,16 +1587,16 @@
         <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>0.378788</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,16 +1604,16 @@
         <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>0.378788</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,16 +1621,16 @@
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>0</v>
+        <v>0.378788</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,16 +1638,16 @@
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,13 +1658,13 @@
         <v>91</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>0.060605</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,16 +1672,16 @@
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>0.060605</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>0.060605</v>
@@ -1698,7 +1698,7 @@
         <v>94</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,16 +1706,16 @@
         <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>0.060605</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,33 +1723,33 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>0.060605</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>0.4</v>
+        <v>0.060605</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,33 +1757,33 @@
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>0.333</v>
+        <v>0.6</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,16 +1791,16 @@
         <v>10</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>0.333</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,16 +1808,16 @@
         <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>0.333</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,16 +1825,16 @@
         <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>0.333</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1842,10 +1842,10 @@
         <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>104</v>
@@ -1859,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>0.667</v>
@@ -1876,7 +1876,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>0.667</v>
@@ -1890,19 +1890,19 @@
     </row>
     <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>0.4</v>
+        <v>0.667</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,33 +1910,33 @@
         <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>0.333</v>
+        <v>0.6</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,16 +1944,16 @@
         <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>0.333</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,16 +1961,16 @@
         <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>0.333</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,16 +1978,16 @@
         <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>0.333</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,13 +1995,13 @@
         <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>105</v>
@@ -2012,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>0.667</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>107</v>
@@ -2029,16 +2029,16 @@
         <v>10</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>0.667</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,16 +2046,16 @@
         <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>0.667</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,7 +2063,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>0.667</v>
@@ -2077,19 +2077,19 @@
     </row>
     <row r="81" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>0.4</v>
+        <v>0.667</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,33 +2097,33 @@
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>0.333</v>
+        <v>0.6</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,16 +2131,16 @@
         <v>10</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>0.333</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,16 +2148,16 @@
         <v>10</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>0.333</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,16 +2165,16 @@
         <v>10</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>0.333</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,13 +2182,13 @@
         <v>10</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>105</v>
@@ -2199,13 +2199,13 @@
         <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>0.667</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>107</v>
@@ -2216,16 +2216,16 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>0.667</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,16 +2233,16 @@
         <v>10</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>0.667</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,13 +2250,13 @@
         <v>10</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>0.667</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>123</v>
@@ -2267,33 +2267,33 @@
         <v>10</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>0.667</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>0.54</v>
+        <v>0.667</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,33 +2301,33 @@
         <v>5</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>0.587</v>
+        <v>0.46</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,16 +2335,16 @@
         <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>0.587</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,16 +2352,16 @@
         <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>0.587</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,16 +2369,16 @@
         <v>10</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>0.587</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,13 +2386,13 @@
         <v>10</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>0.413</v>
+        <v>0.587</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>105</v>
@@ -2403,16 +2403,16 @@
         <v>10</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>0.413</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,16 +2420,16 @@
         <v>10</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>0.413</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,7 +2437,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>0.413</v>
@@ -2446,24 +2446,24 @@
         <v>148</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C103" s="1" t="n">
-        <v>0.3825</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,30 +2474,30 @@
         <v>151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>0.6175</v>
+        <v>0.3825</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>0.6559</v>
+        <v>0.6175</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,7 +2505,7 @@
         <v>10</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>0.6559</v>
@@ -2514,7 +2514,7 @@
         <v>153</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,7 +2522,7 @@
         <v>10</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>0.6559</v>
@@ -2531,7 +2531,7 @@
         <v>154</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,7 +2539,7 @@
         <v>10</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>0.6559</v>
@@ -2548,7 +2548,7 @@
         <v>155</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,10 +2556,10 @@
         <v>10</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>0.1376</v>
+        <v>0.6559</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>156</v>
@@ -2573,7 +2573,7 @@
         <v>10</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>0.1376</v>
@@ -2590,7 +2590,7 @@
         <v>10</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>0.1376</v>
@@ -2599,7 +2599,7 @@
         <v>158</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,16 +2607,16 @@
         <v>10</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>0.1376</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,7 +2624,7 @@
         <v>10</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>0.1376</v>
@@ -2633,7 +2633,7 @@
         <v>161</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2641,16 +2641,16 @@
         <v>10</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>0.1376</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C114" s="1" t="n">
-        <v>0.2065</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,7 +2658,7 @@
         <v>10</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>0.2065</v>
@@ -2667,7 +2667,7 @@
         <v>164</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2675,7 +2675,7 @@
         <v>10</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>0.2065</v>
@@ -2684,7 +2684,7 @@
         <v>165</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>0.2065</v>
@@ -2701,7 +2701,7 @@
         <v>166</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,7 +2709,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>0.2065</v>
@@ -2718,24 +2718,24 @@
         <v>167</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>0.5</v>
+        <v>0.2065</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,24 +2752,24 @@
         <v>169</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>0.096</v>
+        <v>0.5</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,7 +2777,7 @@
         <v>10</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>0.096</v>
@@ -2786,7 +2786,7 @@
         <v>171</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,7 +2794,7 @@
         <v>10</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>0.096</v>
@@ -2803,7 +2803,7 @@
         <v>172</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,7 +2811,7 @@
         <v>10</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>0.096</v>
@@ -2820,7 +2820,7 @@
         <v>173</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,10 +2828,10 @@
         <v>10</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>0.904</v>
+        <v>0.096</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>174</v>
@@ -2845,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>0.904</v>
@@ -2854,7 +2854,7 @@
         <v>175</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,16 +2862,16 @@
         <v>10</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>0.904</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2879,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>0.904</v>
@@ -2896,7 +2896,7 @@
         <v>10</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>0.904</v>
@@ -2910,19 +2910,19 @@
     </row>
     <row r="130" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>0.5</v>
+        <v>0.904</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,24 +2939,24 @@
         <v>183</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>0.096</v>
+        <v>0.5</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>184</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,7 +2964,7 @@
         <v>10</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>0.096</v>
@@ -2973,7 +2973,7 @@
         <v>185</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,7 +2981,7 @@
         <v>10</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>0.096</v>
@@ -2990,7 +2990,7 @@
         <v>186</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,7 +2998,7 @@
         <v>10</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>0.096</v>
@@ -3007,7 +3007,7 @@
         <v>187</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,10 +3015,10 @@
         <v>10</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>0.904</v>
+        <v>0.096</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>188</v>
@@ -3032,7 +3032,7 @@
         <v>10</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>0.904</v>
@@ -3041,7 +3041,7 @@
         <v>189</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,7 +3049,7 @@
         <v>10</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>0.904</v>
@@ -3058,7 +3058,7 @@
         <v>190</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,16 +3066,33 @@
         <v>10</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>0.904</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>179</v>
+      <c r="E140" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
